--- a/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
+++ b/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPRE381Project1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPRE381Project1\single_cycle_MIPS_processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F9AED69-ADF6-4142-87E1-4E4CB6A3BCFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B447056-6CB6-4FE8-BA9C-09D5D872B44E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
+    <workbookView xWindow="1092" yWindow="-276" windowWidth="17280" windowHeight="8964" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t>Instruction</t>
   </si>
@@ -197,6 +197,141 @@
       </rPr>
       <t>[the alu will perform an add of A and B]</t>
     </r>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>addiu</t>
+  </si>
+  <si>
+    <t>addu</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>andi</t>
+  </si>
+  <si>
+    <t>lui</t>
+  </si>
+  <si>
+    <t>lw</t>
+  </si>
+  <si>
+    <t>nor</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t>xori</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>slt</t>
+  </si>
+  <si>
+    <t>slti</t>
+  </si>
+  <si>
+    <t>sll</t>
+  </si>
+  <si>
+    <t>srl</t>
+  </si>
+  <si>
+    <t>sra</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>subu</t>
+  </si>
+  <si>
+    <t>beq</t>
+  </si>
+  <si>
+    <t>bne</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>jal</t>
+  </si>
+  <si>
+    <t>"000000"</t>
+  </si>
+  <si>
+    <t>"001001"</t>
+  </si>
+  <si>
+    <t>"100000"</t>
+  </si>
+  <si>
+    <t>"100100"</t>
+  </si>
+  <si>
+    <t>"100001"</t>
+  </si>
+  <si>
+    <t>"001100"</t>
+  </si>
+  <si>
+    <t>"001111"</t>
+  </si>
+  <si>
+    <t>"100011"</t>
+  </si>
+  <si>
+    <t>"100111"</t>
+  </si>
+  <si>
+    <t>"100110"</t>
+  </si>
+  <si>
+    <t>"100101"</t>
+  </si>
+  <si>
+    <t>"001110"</t>
+  </si>
+  <si>
+    <t>"001101"</t>
+  </si>
+  <si>
+    <t>"101010"</t>
+  </si>
+  <si>
+    <t>"001010"</t>
+  </si>
+  <si>
+    <t>"000010"</t>
+  </si>
+  <si>
+    <t>"000011"</t>
+  </si>
+  <si>
+    <t>"101011"</t>
+  </si>
+  <si>
+    <t>"100010"</t>
+  </si>
+  <si>
+    <t>"000100"</t>
+  </si>
+  <si>
+    <t>"000101"</t>
   </si>
 </sst>
 </file>
@@ -240,13 +375,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -568,13 +706,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC2FCD1-6A91-3E43-87BE-182EA48A4800}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -592,34 +730,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
@@ -672,6 +810,270 @@
       </c>
       <c r="J3" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
+++ b/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPRE381Project1\single_cycle_MIPS_processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B447056-6CB6-4FE8-BA9C-09D5D872B44E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49809C28-B861-40E9-B0B8-4E61FE5B62EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1092" yWindow="-276" windowWidth="17280" windowHeight="8964" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="114">
   <si>
     <t>Instruction</t>
   </si>
@@ -53,12 +53,6 @@
     <t>Control Signals</t>
   </si>
   <si>
-    <t>Note: these are example control signals from the text and your skeleton code; you will need to add more control signals; you may rename any control signals, except those given in the skeleton code.</t>
-  </si>
-  <si>
-    <t>Note: other signals you may have must be correctly assigned for the add; if you redefined these signals, you probably will need to change the sample values</t>
-  </si>
-  <si>
     <t>addi</t>
   </si>
   <si>
@@ -101,38 +95,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">s_DMemWr </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[MemWrite from text]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">s_RegWr </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[RegWrite from text]</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">0 </t>
     </r>
     <r>
@@ -164,6 +126,214 @@
     </r>
   </si>
   <si>
+    <t>ALUControl</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0010 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[the alu will perform an add of A and B]</t>
+    </r>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>addiu</t>
+  </si>
+  <si>
+    <t>addu</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>andi</t>
+  </si>
+  <si>
+    <t>lui</t>
+  </si>
+  <si>
+    <t>lw</t>
+  </si>
+  <si>
+    <t>nor</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t>xori</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>slt</t>
+  </si>
+  <si>
+    <t>slti</t>
+  </si>
+  <si>
+    <t>sll</t>
+  </si>
+  <si>
+    <t>srl</t>
+  </si>
+  <si>
+    <t>sra</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>subu</t>
+  </si>
+  <si>
+    <t>beq</t>
+  </si>
+  <si>
+    <t>bne</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>jal</t>
+  </si>
+  <si>
+    <t>"000000"</t>
+  </si>
+  <si>
+    <t>"001001"</t>
+  </si>
+  <si>
+    <t>"100000"</t>
+  </si>
+  <si>
+    <t>"100100"</t>
+  </si>
+  <si>
+    <t>"100001"</t>
+  </si>
+  <si>
+    <t>"001100"</t>
+  </si>
+  <si>
+    <t>"001111"</t>
+  </si>
+  <si>
+    <t>"100011"</t>
+  </si>
+  <si>
+    <t>"100111"</t>
+  </si>
+  <si>
+    <t>"100110"</t>
+  </si>
+  <si>
+    <t>"100101"</t>
+  </si>
+  <si>
+    <t>"001110"</t>
+  </si>
+  <si>
+    <t>"001101"</t>
+  </si>
+  <si>
+    <t>"101010"</t>
+  </si>
+  <si>
+    <t>"001010"</t>
+  </si>
+  <si>
+    <t>"000010"</t>
+  </si>
+  <si>
+    <t>"000011"</t>
+  </si>
+  <si>
+    <t>"101011"</t>
+  </si>
+  <si>
+    <t>"100010"</t>
+  </si>
+  <si>
+    <t>"000100"</t>
+  </si>
+  <si>
+    <t>"000101"</t>
+  </si>
+  <si>
+    <t>we_mem[write enable for mem]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">we_reg </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[RegWrite enable]</t>
+    </r>
+  </si>
+  <si>
+    <t>PCSrc</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[use PC+4 no branch]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SignExt </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[determines sign extension on 16 to 32 bit extender]</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">1 </t>
     </r>
@@ -176,169 +346,559 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[use the appropriately extended immediate as source B]</t>
-    </r>
-  </si>
-  <si>
-    <t>ALUControl</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0010 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[the alu will perform an add of A and B]</t>
-    </r>
-  </si>
-  <si>
-    <t>add</t>
-  </si>
-  <si>
-    <t>addiu</t>
-  </si>
-  <si>
-    <t>addu</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>andi</t>
-  </si>
-  <si>
-    <t>lui</t>
-  </si>
-  <si>
-    <t>lw</t>
-  </si>
-  <si>
-    <t>nor</t>
-  </si>
-  <si>
-    <t>xor</t>
-  </si>
-  <si>
-    <t>xori</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>ori</t>
-  </si>
-  <si>
-    <t>slt</t>
-  </si>
-  <si>
-    <t>slti</t>
-  </si>
-  <si>
-    <t>sll</t>
-  </si>
-  <si>
-    <t>srl</t>
-  </si>
-  <si>
-    <t>sra</t>
-  </si>
-  <si>
-    <t>sw</t>
-  </si>
-  <si>
-    <t>sub</t>
-  </si>
-  <si>
-    <t>subu</t>
-  </si>
-  <si>
-    <t>beq</t>
-  </si>
-  <si>
-    <t>bne</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>jal</t>
-  </si>
-  <si>
-    <t>"000000"</t>
-  </si>
-  <si>
-    <t>"001001"</t>
-  </si>
-  <si>
-    <t>"100000"</t>
-  </si>
-  <si>
-    <t>"100100"</t>
-  </si>
-  <si>
-    <t>"100001"</t>
-  </si>
-  <si>
-    <t>"001100"</t>
-  </si>
-  <si>
-    <t>"001111"</t>
-  </si>
-  <si>
-    <t>"100011"</t>
-  </si>
-  <si>
-    <t>"100111"</t>
-  </si>
-  <si>
-    <t>"100110"</t>
-  </si>
-  <si>
-    <t>"100101"</t>
-  </si>
-  <si>
-    <t>"001110"</t>
-  </si>
-  <si>
-    <t>"001101"</t>
-  </si>
-  <si>
-    <t>"101010"</t>
-  </si>
-  <si>
-    <t>"001010"</t>
-  </si>
-  <si>
-    <t>"000010"</t>
-  </si>
-  <si>
-    <t>"000011"</t>
-  </si>
-  <si>
-    <t>"101011"</t>
-  </si>
-  <si>
-    <t>"100010"</t>
-  </si>
-  <si>
-    <t>"000100"</t>
-  </si>
-  <si>
-    <t>"000101"</t>
+      <t>[addi sign extended]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[data from rt]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[add uses rd as destination]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[does not matter but choose one because more sign extensions]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[use value from immediate]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[addu does NOT read from memory]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[addiu does NOT read from memory]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[add does NOT read from memory]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[add does NOT write to memory]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[addiu does NOT write to memory]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[addu does NOT write to memory]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[addiu writes back to a register]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[add writes back to a register]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[addu writes back to a register]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[addiu uses rt as destination register rather than rd]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[addu uses rd as destination]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">jr </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[does NOT read from memory]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[does NOT write to memory]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[writes back to a register]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[uses rd as destination]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[uses rt as destination register rather than rd]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[zero extended]</t>
+    </r>
+  </si>
+  <si>
+    <t>normal addition</t>
+  </si>
+  <si>
+    <t>and (needs implementation)</t>
+  </si>
+  <si>
+    <t>nor (needs implementation)</t>
+  </si>
+  <si>
+    <t>xor (needs implementation)</t>
+  </si>
+  <si>
+    <t>or (needs implementation)</t>
+  </si>
+  <si>
+    <t>load upper immediate (needs implementation)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[reads from memory]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[sign extended]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> A(rs) &lt; B(rt) (needs implementation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A(rs) &lt; B(imm) (needs implementation)</t>
+  </si>
+  <si>
+    <t>B(rt) &lt;&lt; shamt (needs implementation)</t>
+  </si>
+  <si>
+    <t>B(rt) &gt;&gt; shamt (needs implementation)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[don't think it matters? zero extended]</t>
+    </r>
+  </si>
+  <si>
+    <t>B(rt) &gt;&gt; shamt sign ext (needs implementation)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[writes to memory]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[does not matter]</t>
+    </r>
+  </si>
+  <si>
+    <t>normal subtraction</t>
+  </si>
+  <si>
+    <t>if(A(rs) == B(rt)) zero (needs implementation)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[use branch if needed]</t>
+    </r>
+  </si>
+  <si>
+    <t>if(A(rs) != B(rt)) zero (needs implementation)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[does NOT write to a register]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">j </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[jump]</t>
+    </r>
+  </si>
+  <si>
+    <t>1 [jump]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[no jump]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[does not matter]</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -350,6 +910,12 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -375,13 +941,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -390,6 +956,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -706,13 +1275,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC2FCD1-6A91-3E43-87BE-182EA48A4800}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -720,13 +1289,15 @@
     <col min="1" max="1" width="9.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="39.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.796875" style="1"/>
+    <col min="10" max="10" width="21.09765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="55.796875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -762,318 +1333,962 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
+      <c r="J2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>8</v>
+      <c r="J3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>44</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>45</v>
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>10</v>
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>10</v>
+        <v>52</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="D22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="C24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="C25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>10</v>
+      <c r="C28" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1083,6 +2298,8 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:O1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
+++ b/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPRE381Project1\single_cycle_MIPS_processor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\CPRE381Project1\single_cycle_MIPS_processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65E735B-4CC2-4306-9708-639EF7C0DFE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3682075-7E4F-422E-BE91-27ADEF24551F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,9 +126,6 @@
     </r>
   </si>
   <si>
-    <t>ALUControl</t>
-  </si>
-  <si>
     <t>add</t>
   </si>
   <si>
@@ -264,25 +261,6 @@
     <t>"000101"</t>
   </si>
   <si>
-    <t>we_mem[write enable for mem]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">we_reg </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[RegWrite enable]</t>
-    </r>
-  </si>
-  <si>
     <t>PCSrc</t>
   </si>
   <si>
@@ -917,6 +895,15 @@
   </si>
   <si>
     <t>R-TYPE</t>
+  </si>
+  <si>
+    <t>RegWrite (we_reg)</t>
+  </si>
+  <si>
+    <t>MemWrite (we_mem)</t>
+  </si>
+  <si>
+    <t>ALUOp (ALUControl)</t>
   </si>
 </sst>
 </file>
@@ -1000,16 +987,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1329,10 +1316,10 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1352,65 +1339,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>116</v>
+      <c r="A3" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1424,10 +1411,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
@@ -1442,916 +1429,916 @@
         <v>11</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="H5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="J6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="L6" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="J7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="L7" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="L8" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="L9" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="J10" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="L15" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>118</v>
+      <c r="A18" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="I20" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="J21" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="J22" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="J23" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="J24" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="J25" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="J26" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="J27" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="J28" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="J29" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="J30" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>81</v>
+      <c r="A31" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>117</v>
+      <c r="A33" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>38</v>
+      <c r="A35" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>8</v>

--- a/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
+++ b/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\CPRE381Project1\single_cycle_MIPS_processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3682075-7E4F-422E-BE91-27ADEF24551F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B25485-2061-4A8E-8730-55A35053CB42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -261,9 +261,6 @@
     <t>"000101"</t>
   </si>
   <si>
-    <t>PCSrc</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">0 </t>
     </r>
@@ -904,6 +901,9 @@
   </si>
   <si>
     <t>ALUOp (ALUControl)</t>
+  </si>
+  <si>
+    <t>Branch (PCSrc)</t>
   </si>
 </sst>
 </file>
@@ -1316,10 +1316,10 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1371,33 +1371,33 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1411,10 +1411,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
@@ -1429,13 +1429,13 @@
         <v>11</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1449,31 +1449,31 @@
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1487,31 +1487,31 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="I6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="L6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -1525,31 +1525,31 @@
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="I7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="L7" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1563,31 +1563,31 @@
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="I8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="L8" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -1601,31 +1601,31 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1639,31 +1639,31 @@
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="I10" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1677,31 +1677,31 @@
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="H12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="K12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1715,31 +1715,31 @@
         <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="K13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1753,31 +1753,31 @@
         <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="L15" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1791,36 +1791,36 @@
         <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="J16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1834,31 +1834,31 @@
         <v>40</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="L19" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1872,31 +1872,31 @@
         <v>42</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1910,31 +1910,31 @@
         <v>41</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="J21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1948,31 +1948,31 @@
         <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="J22" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -1986,31 +1986,31 @@
         <v>47</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="J23" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -2024,31 +2024,31 @@
         <v>48</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="J24" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -2062,31 +2062,31 @@
         <v>51</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="J25" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -2100,31 +2100,31 @@
         <v>38</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="J26" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -2138,31 +2138,31 @@
         <v>53</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="J27" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -2176,31 +2176,31 @@
         <v>54</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="J28" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -2214,31 +2214,31 @@
         <v>56</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="J29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -2252,36 +2252,36 @@
         <v>45</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="J30" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>38</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -2306,31 +2306,31 @@
         <v>8</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">

--- a/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
+++ b/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\CPRE381Project1\single_cycle_MIPS_processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B25485-2061-4A8E-8730-55A35053CB42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F0D3B8-3A86-4DEC-9B6A-9775BCFCC5FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="138">
   <si>
     <t>Instruction</t>
   </si>
@@ -904,6 +905,63 @@
   </si>
   <si>
     <t>Branch (PCSrc)</t>
+  </si>
+  <si>
+    <t>ALUOp</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>Finished?</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -973,7 +1031,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -999,6 +1057,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1315,11 +1374,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC2FCD1-6A91-3E43-87BE-182EA48A4800}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="102" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2355,4 +2414,351 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D515F8C6-F732-4239-8790-C00BB6FBEA93}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="F2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B3 B4:B14 B16:B27 D3:D18" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
+++ b/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\CPRE381Project1\single_cycle_MIPS_processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F0D3B8-3A86-4DEC-9B6A-9775BCFCC5FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486F235B-29B4-4CB6-B9BC-50C5CB27ABCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="138">
   <si>
     <t>Instruction</t>
   </si>
@@ -1051,13 +1051,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1398,34 +1398,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2418,10 +2418,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D515F8C6-F732-4239-8790-C00BB6FBEA93}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2430,255 +2430,264 @@
     <col min="2" max="2" width="17.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="F2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>121</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>131</v>
       </c>
       <c r="E4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>125</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>123</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>127</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>128</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>129</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>133</v>
       </c>
       <c r="E14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D15" s="9" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="7" t="s">
         <v>134</v>
       </c>
       <c r="E15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>135</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2686,7 +2695,7 @@
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2694,7 +2703,7 @@
       <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2702,7 +2711,7 @@
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2710,7 +2719,7 @@
       <c r="A23" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2718,7 +2727,7 @@
       <c r="A24" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2726,7 +2735,7 @@
       <c r="A25" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2734,7 +2743,7 @@
       <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2742,12 +2751,12 @@
       <c r="A27" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="9"/>
+      <c r="B28" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2758,7 +2767,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B3 B4:B14 B16:B27 D3:D18" numberStoredAsText="1"/>
+    <ignoredError sqref="B3 B4:B14 B16:B27 D4:D18" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
+++ b/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\CPRE381Project1\single_cycle_MIPS_processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486F235B-29B4-4CB6-B9BC-50C5CB27ABCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6C0B91-E1CD-47E0-A849-3F45FA5CAC90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
@@ -1375,10 +1375,10 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView zoomScale="102" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="G26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16:B35"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2420,8 +2420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D515F8C6-F732-4239-8790-C00BB6FBEA93}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2767,7 +2767,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B3 B4:B14 B16:B27 D4:D18" numberStoredAsText="1"/>
+    <ignoredError sqref="B3 B4:B14 B16:B27 D5:D18" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
+++ b/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\CPRE381Project1\single_cycle_MIPS_processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6C0B91-E1CD-47E0-A849-3F45FA5CAC90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51770D36-B292-4DCA-A4D8-0A88F9E99416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="138">
   <si>
     <t>Instruction</t>
   </si>
@@ -2420,8 +2420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D515F8C6-F732-4239-8790-C00BB6FBEA93}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2460,6 +2460,9 @@
       <c r="E3" t="s">
         <v>16</v>
       </c>
+      <c r="F3" s="7" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2474,6 +2477,9 @@
       <c r="E4" t="s">
         <v>33</v>
       </c>
+      <c r="F4" s="7" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2556,6 +2562,9 @@
       <c r="E9" t="s">
         <v>19</v>
       </c>
+      <c r="F9" s="7" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -2570,6 +2579,9 @@
       <c r="E10" t="s">
         <v>26</v>
       </c>
+      <c r="F10" s="7" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2655,7 +2667,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2668,8 +2680,11 @@
       <c r="E17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2682,8 +2697,11 @@
       <c r="E18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2691,7 +2709,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -2699,7 +2717,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2707,7 +2725,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2715,7 +2733,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2723,7 +2741,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2731,7 +2749,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -2739,7 +2757,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2747,7 +2765,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -2755,7 +2773,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
     </row>
   </sheetData>

--- a/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
+++ b/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\CPRE381Project1\single_cycle_MIPS_processor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPRE381Project1\single_cycle_MIPS_processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51770D36-B292-4DCA-A4D8-0A88F9E99416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC8B2CB-7BE4-4B57-9997-C572329488FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="138">
   <si>
     <t>Instruction</t>
   </si>
@@ -839,12 +839,6 @@
     <t>0111  A(rs) &lt; B(imm) (needs implementation)</t>
   </si>
   <si>
-    <t>1000 B(rt) &lt;&lt; shamt (needs implementation)</t>
-  </si>
-  <si>
-    <t>1001 B(rt) &gt;&gt; shamt (needs implementation)</t>
-  </si>
-  <si>
     <t>1010 B(rt) &gt;&gt; shamt sign ext (needs implementation)</t>
   </si>
   <si>
@@ -962,6 +956,12 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>1000 B(rt) &gt;&gt; shamt (needs implementation)</t>
+  </si>
+  <si>
+    <t>1001 B(rt) &lt;&lt; shamt (needs implementation)</t>
   </si>
 </sst>
 </file>
@@ -1375,10 +1375,10 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView zoomScale="102" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="G26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1430,22 +1430,22 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>60</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1473,7 +1473,7 @@
         <v>65</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
@@ -1739,7 +1739,7 @@
         <v>65</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>78</v>
@@ -1777,7 +1777,7 @@
         <v>65</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>78</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1896,7 +1896,7 @@
         <v>62</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>68</v>
@@ -2162,7 +2162,7 @@
         <v>62</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>78</v>
@@ -2200,7 +2200,7 @@
         <v>62</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>78</v>
@@ -2238,7 +2238,7 @@
         <v>62</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>78</v>
@@ -2276,7 +2276,7 @@
         <v>62</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>78</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -2418,10 +2418,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D515F8C6-F732-4239-8790-C00BB6FBEA93}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2430,241 +2430,241 @@
     <col min="2" max="2" width="17.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="F2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
       </c>
-      <c r="G11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
       </c>
-      <c r="G12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="G13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F13" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="E14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2672,16 +2672,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -2689,16 +2689,16 @@
         <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E18" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2706,7 +2706,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2714,7 +2714,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2722,7 +2722,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2730,7 +2730,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2738,7 +2738,10 @@
         <v>34</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="F23" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2746,7 +2749,10 @@
         <v>35</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="F24" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2754,7 +2760,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2762,7 +2768,7 @@
         <v>31</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2770,7 +2776,7 @@
         <v>36</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2785,7 +2791,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B3 B4:B14 B16:B27 D5:D18" numberStoredAsText="1"/>
+    <ignoredError sqref="B3 B4:B14 B16:B27 D5:D10 D13:D18" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
+++ b/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPRE381Project1\single_cycle_MIPS_processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC8B2CB-7BE4-4B57-9997-C572329488FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5832ED5-6CF2-43F7-958A-26FE88F08BC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
+    <workbookView xWindow="20565" yWindow="6360" windowWidth="17280" windowHeight="8970" activeTab="1" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="139">
   <si>
     <t>Instruction</t>
   </si>
@@ -962,6 +962,9 @@
   </si>
   <si>
     <t>1001 B(rt) &lt;&lt; shamt (needs implementation)</t>
+  </si>
+  <si>
+    <t>Tested and Working?</t>
   </si>
 </sst>
 </file>
@@ -2418,19 +2421,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D515F8C6-F732-4239-8790-C00BB6FBEA93}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.3984375" customWidth="1"/>
     <col min="2" max="2" width="17.69921875" customWidth="1"/>
+    <col min="7" max="7" width="19.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2439,15 +2443,18 @@
       </c>
       <c r="C1" s="8"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="F2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2464,7 +2471,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2481,7 +2488,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2498,7 +2505,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2515,7 +2522,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2532,7 +2539,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2549,7 +2556,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2566,7 +2573,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -2583,7 +2590,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2600,7 +2607,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -2617,7 +2624,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -2634,7 +2641,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2647,16 +2654,22 @@
       <c r="E14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D15" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2740,9 +2753,6 @@
       <c r="B23" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F23" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -2750,9 +2760,6 @@
       </c>
       <c r="B24" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F24" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">

--- a/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
+++ b/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPRE381Project1\single_cycle_MIPS_processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5832ED5-6CF2-43F7-958A-26FE88F08BC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6613C98-6A3D-41F2-8DFD-8FD606A08232}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20565" yWindow="6360" windowWidth="17280" windowHeight="8970" activeTab="1" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="139">
   <si>
     <t>Instruction</t>
   </si>
@@ -1378,7 +1378,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView zoomScale="102" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
@@ -2424,7 +2424,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2470,6 +2470,9 @@
       <c r="F3" s="7" t="s">
         <v>135</v>
       </c>
+      <c r="G3" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2487,6 +2490,9 @@
       <c r="F4" s="7" t="s">
         <v>135</v>
       </c>
+      <c r="G4" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2504,6 +2510,9 @@
       <c r="F5" s="7" t="s">
         <v>135</v>
       </c>
+      <c r="G5" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2521,6 +2530,9 @@
       <c r="F6" s="7" t="s">
         <v>135</v>
       </c>
+      <c r="G6" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2538,6 +2550,9 @@
       <c r="F7" s="7" t="s">
         <v>135</v>
       </c>
+      <c r="G7" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2555,6 +2570,9 @@
       <c r="F8" s="7" t="s">
         <v>135</v>
       </c>
+      <c r="G8" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -2572,6 +2590,9 @@
       <c r="F9" s="7" t="s">
         <v>135</v>
       </c>
+      <c r="G9" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -2589,6 +2610,9 @@
       <c r="F10" s="7" t="s">
         <v>135</v>
       </c>
+      <c r="G10" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2606,6 +2630,9 @@
       <c r="F11" s="7" t="s">
         <v>135</v>
       </c>
+      <c r="G11" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -2623,6 +2650,9 @@
       <c r="F12" s="7" t="s">
         <v>135</v>
       </c>
+      <c r="G12" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -2640,6 +2670,9 @@
       <c r="F13" s="7" t="s">
         <v>135</v>
       </c>
+      <c r="G13" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -2657,6 +2690,9 @@
       <c r="F14" s="7" t="s">
         <v>135</v>
       </c>
+      <c r="G14" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D15" s="7" t="s">
@@ -2668,6 +2704,9 @@
       <c r="F15" s="7" t="s">
         <v>135</v>
       </c>
+      <c r="G15" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2693,9 +2732,7 @@
       <c r="E17" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>135</v>
-      </c>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -2710,9 +2747,7 @@
       <c r="E18" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>135</v>
-      </c>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">

--- a/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
+++ b/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPRE381Project1\single_cycle_MIPS_processor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\CPRE381Project1\single_cycle_MIPS_processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6613C98-6A3D-41F2-8DFD-8FD606A08232}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2D8B2F-9DFC-410B-9EA6-8CD32EA578D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
+    <workbookView xWindow="31680" yWindow="2880" windowWidth="21600" windowHeight="11325" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="141">
   <si>
     <t>Instruction</t>
   </si>
@@ -965,13 +965,19 @@
   </si>
   <si>
     <t>Tested and Working?</t>
+  </si>
+  <si>
+    <t>halt</t>
+  </si>
+  <si>
+    <t>01 0100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1000,6 +1006,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1034,7 +1046,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1060,6 +1072,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1375,13 +1390,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC2FCD1-6A91-3E43-87BE-182EA48A4800}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2406,6 +2421,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
@@ -2423,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D515F8C6-F732-4239-8790-C00BB6FBEA93}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
+++ b/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\CPRE381Project1\single_cycle_MIPS_processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2D8B2F-9DFC-410B-9EA6-8CD32EA578D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0378E9B3-6005-4622-A1C7-1BAB475392C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31680" yWindow="2880" windowWidth="21600" windowHeight="11325" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
+    <workbookView xWindow="38640" yWindow="2640" windowWidth="17445" windowHeight="11325" activeTab="1" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="143">
   <si>
     <t>Instruction</t>
   </si>
@@ -971,6 +971,12 @@
   </si>
   <si>
     <t>01 0100</t>
+  </si>
+  <si>
+    <t>1101-&gt;1110</t>
+  </si>
+  <si>
+    <t>1110-&gt;1111</t>
   </si>
 </sst>
 </file>
@@ -1067,14 +1073,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1392,11 +1398,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC2FCD1-6A91-3E43-87BE-182EA48A4800}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="102" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1416,34 +1422,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2425,7 +2431,7 @@
       <c r="A38" t="s">
         <v>139</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2446,8 +2452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D515F8C6-F732-4239-8790-C00BB6FBEA93}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2458,18 +2464,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="8"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
       <c r="F2" t="s">
         <v>134</v>
       </c>
@@ -2482,7 +2488,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>119</v>
@@ -2682,7 +2688,7 @@
         <v>32</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>127</v>
@@ -2736,7 +2742,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>118</v>
@@ -2856,7 +2862,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B3 B4:B14 B16:B27 D5:D10 D13:D18" numberStoredAsText="1"/>
+    <ignoredError sqref="B4:B12 B17:B27 D5:D10 D13:D18 B14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
+++ b/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\CPRE381Project1\single_cycle_MIPS_processor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPRE381Project1\single_cycle_MIPS_processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0378E9B3-6005-4622-A1C7-1BAB475392C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEEC4BF-8026-490A-93B2-F3A78C52BC54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38640" yWindow="2640" windowWidth="17445" windowHeight="11325" activeTab="1" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="143">
   <si>
     <t>Instruction</t>
   </si>
@@ -2453,7 +2453,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2748,7 +2748,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2761,9 +2761,14 @@
       <c r="E17" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2776,9 +2781,14 @@
       <c r="E18" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2786,7 +2796,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -2794,7 +2804,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2802,7 +2812,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2810,7 +2820,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2818,7 +2828,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2826,7 +2836,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -2834,7 +2844,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2842,7 +2852,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -2850,7 +2860,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
     </row>
   </sheetData>

--- a/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
+++ b/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPRE381Project1\single_cycle_MIPS_processor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\CPRE381Project1\single_cycle_MIPS_processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEEC4BF-8026-490A-93B2-F3A78C52BC54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B870A3D9-B24B-49F6-B2F8-8E1B14AE291A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23255" windowHeight="12575" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="149">
   <si>
     <t>Instruction</t>
   </si>
@@ -977,6 +972,24 @@
   </si>
   <si>
     <t>1110-&gt;1111</t>
+  </si>
+  <si>
+    <t>rpl.qb</t>
+  </si>
+  <si>
+    <t>jr [jr mux]</t>
+  </si>
+  <si>
+    <t>0x (x means don't care)</t>
+  </si>
+  <si>
+    <t>0x</t>
+  </si>
+  <si>
+    <t>1x</t>
+  </si>
+  <si>
+    <t>jal [jal mux]</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1075,6 +1088,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1398,58 +1414,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC2FCD1-6A91-3E43-87BE-182EA48A4800}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.7890625" defaultRowHeight="16" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="9.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.2890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.70703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.7890625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.7890625" style="1" customWidth="1"/>
     <col min="6" max="6" width="32.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.7890625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.09765625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="55.796875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.796875" style="1"/>
+    <col min="10" max="10" width="21.08203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="55.7890625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.7890625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.8">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.8">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1477,13 +1493,19 @@
       <c r="L2" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.8">
       <c r="A3" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.8">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1520,8 +1542,14 @@
       <c r="L4" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.8">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,8 +1586,14 @@
       <c r="L5" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.8">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1596,8 +1630,14 @@
       <c r="L6" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.8">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1674,14 @@
       <c r="L7" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.8">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1672,8 +1718,14 @@
       <c r="L8" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.8">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1710,8 +1762,14 @@
       <c r="L9" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.8">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1748,8 +1806,17 @@
       <c r="L10" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.8">
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.8">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -1786,8 +1853,14 @@
       <c r="L12" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.8">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -1824,8 +1897,17 @@
       <c r="L13" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.8">
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.8">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1862,8 +1944,14 @@
       <c r="L15" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.8">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -1900,13 +1988,23 @@
       <c r="L16" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A18" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1943,8 +2041,14 @@
       <c r="L19" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1981,8 +2085,14 @@
       <c r="L20" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -2019,8 +2129,14 @@
       <c r="L21" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2057,8 +2173,14 @@
       <c r="L22" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -2095,8 +2217,14 @@
       <c r="L23" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -2133,8 +2261,14 @@
       <c r="L24" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -2171,8 +2305,14 @@
       <c r="L25" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -2209,8 +2349,14 @@
       <c r="L26" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -2247,8 +2393,14 @@
       <c r="L27" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -2285,8 +2437,14 @@
       <c r="L28" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -2323,8 +2481,14 @@
       <c r="L29" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -2361,8 +2525,14 @@
       <c r="L30" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A31" s="6" t="s">
         <v>77</v>
       </c>
@@ -2372,13 +2542,50 @@
       <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1</v>
+      </c>
+      <c r="N31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A33" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -2415,8 +2622,14 @@
       <c r="L34" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A35" s="6" t="s">
         <v>37</v>
       </c>
@@ -2426,8 +2639,46 @@
       <c r="C35" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1">
+        <v>1</v>
+      </c>
+      <c r="N35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.8">
+      <c r="A37" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.8">
       <c r="A38" t="s">
         <v>139</v>
       </c>
@@ -2452,30 +2703,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D515F8C6-F732-4239-8790-C00BB6FBEA93}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="17.3984375" customWidth="1"/>
-    <col min="2" max="2" width="17.69921875" customWidth="1"/>
-    <col min="7" max="7" width="19.296875" customWidth="1"/>
+    <col min="1" max="1" width="17.4140625" customWidth="1"/>
+    <col min="2" max="2" width="17.70703125" customWidth="1"/>
+    <col min="7" max="7" width="19.2890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="F2" t="s">
         <v>134</v>
       </c>
@@ -2483,7 +2734,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2503,7 +2754,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2523,7 +2774,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2543,7 +2794,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2563,7 +2814,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2583,7 +2834,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2603,7 +2854,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2623,7 +2874,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -2643,7 +2894,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2663,7 +2914,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -2683,7 +2934,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -2703,7 +2954,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2723,7 +2974,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.8">
       <c r="D15" s="7" t="s">
         <v>132</v>
       </c>
@@ -2737,7 +2988,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2748,7 +2999,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2768,7 +3019,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2788,7 +3039,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2796,7 +3047,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -2804,7 +3055,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2812,7 +3063,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2820,7 +3071,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2828,7 +3079,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2836,7 +3087,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -2844,7 +3095,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2852,7 +3103,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -2860,7 +3111,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.8">
       <c r="B28" s="7"/>
     </row>
   </sheetData>

--- a/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
+++ b/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\CPRE381Project1\single_cycle_MIPS_processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B870A3D9-B24B-49F6-B2F8-8E1B14AE291A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7141DD6-14FC-4498-9486-4DA7037353C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="23255" windowHeight="12575" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="126">
   <si>
     <t>Instruction</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Funct (Binary)</t>
   </si>
   <si>
-    <t>ALUSrc</t>
-  </si>
-  <si>
     <t>MemtoReg</t>
   </si>
   <si>
@@ -306,6 +303,38 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[add uses rd as destination]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[does not matter but choose one because more sign extensions]</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">0 </t>
     </r>
     <r>
@@ -317,7 +346,87 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[data from rt]</t>
+      <t>[addu does NOT read from memory]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[addiu does NOT read from memory]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[add does NOT read from memory]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[add does NOT write to memory]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[addiu does NOT write to memory]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[addu does NOT write to memory]</t>
     </r>
   </si>
   <si>
@@ -333,7 +442,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[add uses rd as destination]</t>
+      <t>[addiu writes back to a register]</t>
     </r>
   </si>
   <si>
@@ -349,7 +458,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[does not matter but choose one because more sign extensions]</t>
+      <t>[add writes back to a register]</t>
     </r>
   </si>
   <si>
@@ -365,7 +474,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[use value from immediate]</t>
+      <t>[addu writes back to a register]</t>
     </r>
   </si>
   <si>
@@ -381,8 +490,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[addu does NOT read from memory]</t>
-    </r>
+      <t>[addiu uses rt as destination register rather than rd]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[addu uses rd as destination]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">jr </t>
   </si>
   <si>
     <r>
@@ -397,7 +525,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[addiu does NOT read from memory]</t>
+      <t>[does NOT read from memory]</t>
     </r>
   </si>
   <si>
@@ -413,7 +541,39 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[add does NOT read from memory]</t>
+      <t>[does NOT write to memory]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[writes back to a register]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[uses rd as destination]</t>
     </r>
   </si>
   <si>
@@ -429,7 +589,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[add does NOT write to memory]</t>
+      <t>[uses rt as destination register rather than rd]</t>
     </r>
   </si>
   <si>
@@ -445,7 +605,39 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[addiu does NOT write to memory]</t>
+      <t>[zero extended]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[reads from memory]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[sign extended]</t>
     </r>
   </si>
   <si>
@@ -461,7 +653,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[addu does NOT write to memory]</t>
+      <t>[don't think it matters? zero extended]</t>
     </r>
   </si>
   <si>
@@ -477,7 +669,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[addiu writes back to a register]</t>
+      <t>[writes to memory]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[does not matter]</t>
     </r>
   </si>
   <si>
@@ -493,23 +701,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[add writes back to a register]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[addu writes back to a register]</t>
+      <t>[use branch if needed]</t>
     </r>
   </si>
   <si>
@@ -525,27 +717,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[addiu uses rt as destination register rather than rd]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[addu uses rd as destination]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">jr </t>
+      <t>[does NOT write to a register]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">j </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[jump]</t>
+    </r>
+  </si>
+  <si>
+    <t>1 [jump]</t>
   </si>
   <si>
     <r>
@@ -560,321 +752,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[does NOT read from memory]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[does NOT write to memory]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[writes back to a register]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[uses rd as destination]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[uses rt as destination register rather than rd]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[zero extended]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[reads from memory]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[sign extended]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[don't think it matters? zero extended]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[writes to memory]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[does not matter]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[use branch if needed]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[does NOT write to a register]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">j </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[jump]</t>
-    </r>
-  </si>
-  <si>
-    <t>1 [jump]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>[no jump]</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[does not matter]</t>
-    </r>
-  </si>
-  <si>
-    <t>0000 normal addition</t>
-  </si>
-  <si>
-    <t>0010 and (needs implementation)</t>
-  </si>
-  <si>
-    <t>0011 or (needs implementation)</t>
-  </si>
-  <si>
-    <t>0100 xor (needs implementation)</t>
-  </si>
-  <si>
-    <t>0001 normal subtraction</t>
-  </si>
-  <si>
-    <t>0101 nor (needs implementation)</t>
-  </si>
-  <si>
-    <t>0110 load upper imm (needs implementation)</t>
-  </si>
-  <si>
-    <t>0111 A(rs) &lt; B(rt) (needs implementation)</t>
-  </si>
-  <si>
-    <t>0111  A(rs) &lt; B(imm) (needs implementation)</t>
-  </si>
-  <si>
-    <t>1010 B(rt) &gt;&gt; shamt sign ext (needs implementation)</t>
-  </si>
-  <si>
-    <t>1011 if(A(rs) == B(rt)) zero (needs implementation)</t>
-  </si>
-  <si>
-    <t>1100 if(A(rs) != B(rt)) zero (needs implementation)</t>
-  </si>
-  <si>
-    <t>1101 normal addition ovf</t>
-  </si>
-  <si>
-    <t>1110 normal subtraction ovf</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1101 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[the alu will perform an add of A and B]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ovf</t>
-    </r>
-  </si>
-  <si>
     <t>I-TYPE</t>
   </si>
   <si>
@@ -890,9 +771,6 @@
     <t>MemWrite (we_mem)</t>
   </si>
   <si>
-    <t>ALUOp (ALUControl)</t>
-  </si>
-  <si>
     <t>Branch (PCSrc)</t>
   </si>
   <si>
@@ -953,12 +831,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>1000 B(rt) &gt;&gt; shamt (needs implementation)</t>
-  </si>
-  <si>
-    <t>1001 B(rt) &lt;&lt; shamt (needs implementation)</t>
-  </si>
-  <si>
     <t>Tested and Working?</t>
   </si>
   <si>
@@ -978,9 +850,6 @@
   </si>
   <si>
     <t>jr [jr mux]</t>
-  </si>
-  <si>
-    <t>0x (x means don't care)</t>
   </si>
   <si>
     <t>0x</t>
@@ -1415,10 +1284,10 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7890625" defaultRowHeight="16" x14ac:dyDescent="0.8"/>
@@ -1448,7 +1317,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
@@ -1467,1089 +1336,945 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.8">
       <c r="A3" s="5" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.8">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="9">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.8">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>95</v>
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="H5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.8">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>96</v>
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="J6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="L6" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.8">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>98</v>
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="J7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="L7" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>97</v>
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="L8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.8">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>103</v>
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="L9" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="9">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.8">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>101</v>
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="J10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="9">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.8">
-      <c r="N11" s="9"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.8">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>105</v>
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.8">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>106</v>
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="9">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.8">
-      <c r="N14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.8">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>95</v>
+        <v>7</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="L15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="9">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.8">
       <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="A18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="A31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A18" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
-      <c r="N20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-      <c r="N21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
-      <c r="N23" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-      <c r="N25" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
-      <c r="N26" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0</v>
-      </c>
-      <c r="N27" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0</v>
-      </c>
-      <c r="N28" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0</v>
-      </c>
-      <c r="N29" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0</v>
-      </c>
-      <c r="N30" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A31" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>146</v>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -2558,92 +2283,80 @@
         <v>0</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="L31" s="1">
         <v>1</v>
       </c>
-      <c r="M31" s="1">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="A33" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.8">
+      <c r="A35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1">
         <v>1</v>
       </c>
-      <c r="N31" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="N32" s="9"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A33" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="N33" s="9"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="M34" s="1">
-        <v>0</v>
-      </c>
-      <c r="N34" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A35" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>146</v>
+      <c r="E35" s="1">
+        <v>1</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -2658,32 +2371,26 @@
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="L35" s="1">
         <v>1</v>
       </c>
-      <c r="M35" s="1">
-        <v>1</v>
-      </c>
-      <c r="N35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.8">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A37" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.8">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2719,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C1" s="10"/>
     </row>
@@ -2728,387 +2435,387 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G5" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G6" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G8" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
       <c r="F14" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G14" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.8">
       <c r="D15" s="7" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G15" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G17" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G18" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.8">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.8">

--- a/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
+++ b/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\CPRE381Project1\single_cycle_MIPS_processor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPRE381Project1\single_cycle_MIPS_processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7141DD6-14FC-4498-9486-4DA7037353C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682FE05B-7AE5-48CC-A13B-C838BF3EE1CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23255" windowHeight="12575" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="124">
   <si>
     <t>Instruction</t>
   </si>
@@ -737,9 +737,6 @@
     </r>
   </si>
   <si>
-    <t>1 [jump]</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">0 </t>
     </r>
@@ -837,9 +834,6 @@
     <t>halt</t>
   </si>
   <si>
-    <t>01 0100</t>
-  </si>
-  <si>
     <t>1101-&gt;1110</t>
   </si>
   <si>
@@ -852,20 +846,40 @@
     <t>jr [jr mux]</t>
   </si>
   <si>
-    <t>0x</t>
-  </si>
-  <si>
-    <t>1x</t>
-  </si>
-  <si>
     <t>jal [jal mux]</t>
+  </si>
+  <si>
+    <t>"010100"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [jump]</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -895,14 +909,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF6A9955"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -912,12 +920,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,12 +953,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -965,6 +964,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1284,77 +1286,77 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7890625" defaultRowHeight="16" x14ac:dyDescent="0.8"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.2890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.70703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.7890625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.7890625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="32.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.08203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="55.7890625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.7890625" style="1"/>
+    <col min="10" max="10" width="21.09765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="55.796875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.8">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.8">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>59</v>
@@ -1363,12 +1365,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.8">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1381,7 +1383,7 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1403,10 +1405,10 @@
         <v>60</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1419,7 +1421,7 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -1441,10 +1443,10 @@
         <v>60</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1457,7 +1459,7 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -1479,10 +1481,10 @@
         <v>80</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1495,7 +1497,7 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>0</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -1517,10 +1519,10 @@
         <v>80</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1533,7 +1535,7 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1555,10 +1557,10 @@
         <v>80</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1571,7 +1573,7 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1593,10 +1595,10 @@
         <v>82</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1609,7 +1611,7 @@
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1631,13 +1633,13 @@
         <v>62</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.8">
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1650,7 +1652,7 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -1672,10 +1674,10 @@
         <v>62</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1688,7 +1690,7 @@
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="7">
         <v>0</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -1710,13 +1712,13 @@
         <v>62</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.8">
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1729,7 +1731,7 @@
       <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="7">
         <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -1751,10 +1753,10 @@
         <v>82</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1767,7 +1769,7 @@
       <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="7">
         <v>0</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -1789,19 +1791,19 @@
         <v>82</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.8">
+        <v>92</v>
+      </c>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1814,7 +1816,7 @@
       <c r="D19" s="1">
         <v>0</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="7">
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -1836,10 +1838,10 @@
         <v>62</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1852,7 +1854,7 @@
       <c r="D20" s="1">
         <v>0</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="7">
         <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -1874,10 +1876,10 @@
         <v>62</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1890,7 +1892,7 @@
       <c r="D21" s="1">
         <v>0</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="7">
         <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -1912,10 +1914,10 @@
         <v>62</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1928,7 +1930,7 @@
       <c r="D22" s="1">
         <v>0</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="7">
         <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -1950,10 +1952,10 @@
         <v>62</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1966,7 +1968,7 @@
       <c r="D23" s="1">
         <v>0</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="7">
         <v>0</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -1988,10 +1990,10 @@
         <v>62</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -2004,7 +2006,7 @@
       <c r="D24" s="1">
         <v>0</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="7">
         <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -2026,10 +2028,10 @@
         <v>62</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -2042,7 +2044,7 @@
       <c r="D25" s="1">
         <v>0</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="7">
         <v>0</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -2064,10 +2066,10 @@
         <v>62</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -2080,7 +2082,7 @@
       <c r="D26" s="1">
         <v>0</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="7">
         <v>0</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -2102,10 +2104,10 @@
         <v>62</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -2118,7 +2120,7 @@
       <c r="D27" s="1">
         <v>0</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="7">
         <v>0</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -2140,10 +2142,10 @@
         <v>83</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -2156,7 +2158,7 @@
       <c r="D28" s="1">
         <v>0</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="7">
         <v>0</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -2178,10 +2180,10 @@
         <v>62</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -2194,7 +2196,7 @@
       <c r="D29" s="1">
         <v>0</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="7">
         <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -2216,10 +2218,10 @@
         <v>62</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -2232,7 +2234,7 @@
       <c r="D30" s="1">
         <v>0</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="7">
         <v>0</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -2254,11 +2256,11 @@
         <v>62</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A31" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2270,41 +2272,41 @@
       <c r="D31" s="1">
         <v>1</v>
       </c>
-      <c r="E31" s="9">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1" t="s">
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L31" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.8">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.8">
+        <v>91</v>
+      </c>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -2317,7 +2319,7 @@
       <c r="D34" s="1">
         <v>0</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="7">
         <v>0</v>
       </c>
       <c r="F34" s="3" t="s">
@@ -2339,11 +2341,11 @@
         <v>62</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.8">
-      <c r="A35" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2358,39 +2360,45 @@
       <c r="E35" s="1">
         <v>1</v>
       </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
+      <c r="F35" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="H35" s="1">
         <v>1</v>
       </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1" t="s">
+      <c r="I35" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L35" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.8">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2414,412 +2422,412 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.8"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.4140625" customWidth="1"/>
-    <col min="2" max="2" width="17.70703125" customWidth="1"/>
-    <col min="7" max="7" width="19.2890625" customWidth="1"/>
+    <col min="1" max="1" width="17.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.69921875" customWidth="1"/>
+    <col min="7" max="7" width="19.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>99</v>
+      <c r="B3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>115</v>
+      <c r="F3" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>109</v>
+      <c r="B4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>115</v>
+      <c r="F4" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>100</v>
+      <c r="B5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>115</v>
+      <c r="F5" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="G5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>103</v>
+      <c r="B6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>115</v>
+      <c r="F6" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="G6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>102</v>
+      <c r="B7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>115</v>
+      <c r="F7" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="G7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>101</v>
+      <c r="B8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>115</v>
+      <c r="F8" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="G8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>110</v>
+      <c r="B9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>115</v>
+      <c r="F9" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>104</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>115</v>
+      <c r="F10" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>106</v>
+      <c r="B11" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>115</v>
+      <c r="F11" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>105</v>
+      <c r="B12" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="E12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>115</v>
+      <c r="F12" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>107</v>
+      <c r="B13" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>115</v>
+      <c r="F13" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="G13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>111</v>
+      <c r="B14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="E14" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>115</v>
+      <c r="F14" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="D15" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="E15" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>115</v>
+      <c r="F15" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="G15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="B16" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>108</v>
+      <c r="B17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>115</v>
+      <c r="F17" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>113</v>
+      <c r="B18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="E18" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>115</v>
+      <c r="F18" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="G18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="B19" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="B20" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="B21" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="B22" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="B23" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="B24" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="B25" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.8">
+      <c r="B26" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.8">
-      <c r="B28" s="7"/>
+      <c r="B27" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
+++ b/single_cycle_MIPS_processor/Proj1_control_signals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPRE381Project1\single_cycle_MIPS_processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682FE05B-7AE5-48CC-A13B-C838BF3EE1CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2555D6-503F-4F75-B271-D11B5433FB82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -960,13 +960,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1285,7 +1285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC2FCD1-6A91-3E43-87BE-182EA48A4800}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+    <sheetView zoomScale="102" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1309,34 +1309,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="1" t="s">
         <v>120</v>
       </c>
@@ -2260,7 +2260,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2345,7 +2345,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2418,8 +2418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D515F8C6-F732-4239-8790-C00BB6FBEA93}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2430,18 +2430,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="9"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="F2" t="s">
         <v>113</v>
       </c>
